--- a/DesignerConfigs/Datas/role/等级信息表.xlsx
+++ b/DesignerConfigs/Datas/role/等级信息表.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\role\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BD9B6C-F9E3-4066-AA58-4AFC15E137D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A65A9-0FE9-456E-A38E-ADB6856E1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1350" windowWidth="26100" windowHeight="14850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="23385" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验数值表" sheetId="1" r:id="rId1"/>
     <sheet name="等级奖励系数表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -132,9 +141,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>distinct_bonus_infos</t>
-  </si>
-  <si>
     <t>effective_level</t>
   </si>
   <si>
@@ -161,6 +167,10 @@
   </si>
   <si>
     <t>title_rows=4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct_bonus_infos&amp;multi_rows=1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -8457,7 +8467,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8476,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8490,7 +8500,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -8501,10 +8511,10 @@
       <c r="A3" s="36"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -8526,22 +8536,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -8553,13 +8563,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
@@ -8572,14 +8582,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="12">
         <f>E6+0.5</f>
         <v>1.5</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="12">
         <v>2</v>
@@ -8592,14 +8602,14 @@
         <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" ref="E8:E12" si="0">E7+0.5</f>
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="12">
         <v>3</v>
@@ -8612,14 +8622,14 @@
         <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>4</v>
@@ -8632,14 +8642,14 @@
         <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12">
         <v>5</v>
@@ -8652,14 +8662,14 @@
         <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="12">
         <v>6</v>
@@ -8672,14 +8682,14 @@
         <v>60</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="12">
         <v>7</v>

--- a/DesignerConfigs/Datas/role/等级信息表.xlsx
+++ b/DesignerConfigs/Datas/role/等级信息表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\role\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344283DB-5867-4ACA-8CD4-C88840EC2DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD05818-358D-4E66-B494-ABAF59C83B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="2295" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30570" yWindow="1875" windowWidth="25140" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验数值表" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>##field</t>
+    <t>##var</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -429,6 +429,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,12 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -780,31 +780,31 @@
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25" t="s">
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29"/>
       <c r="Y1" s="11" t="s">
         <v>4</v>
       </c>
@@ -8413,8 +8413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8429,34 +8429,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
